--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H2">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N2">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P2">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q2">
-        <v>41.66435766010267</v>
+        <v>104.7333938476867</v>
       </c>
       <c r="R2">
-        <v>374.9792189409241</v>
+        <v>942.60054462918</v>
       </c>
       <c r="S2">
-        <v>0.03690489269545389</v>
+        <v>0.06134754377958804</v>
       </c>
       <c r="T2">
-        <v>0.0369048926954539</v>
+        <v>0.06134754377958804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H3">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>106.269536</v>
       </c>
       <c r="O3">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P3">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q3">
-        <v>159.5672388141404</v>
+        <v>288.1024034200391</v>
       </c>
       <c r="R3">
-        <v>1436.105149327264</v>
+        <v>2592.921630780352</v>
       </c>
       <c r="S3">
-        <v>0.1413393163093158</v>
+        <v>0.1687558681858353</v>
       </c>
       <c r="T3">
-        <v>0.1413393163093159</v>
+        <v>0.1687558681858353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H4">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I4">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J4">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N4">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O4">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P4">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q4">
-        <v>106.1725717831957</v>
+        <v>248.1796537783731</v>
       </c>
       <c r="R4">
-        <v>955.5531460487611</v>
+        <v>2233.616884005358</v>
       </c>
       <c r="S4">
-        <v>0.09404410841574835</v>
+        <v>0.1453711334659288</v>
       </c>
       <c r="T4">
-        <v>0.09404410841574838</v>
+        <v>0.1453711334659288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H5">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I5">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J5">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N5">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O5">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P5">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q5">
-        <v>16.68425336499133</v>
+        <v>19.79537023399245</v>
       </c>
       <c r="R5">
-        <v>150.158280284922</v>
+        <v>178.158332105932</v>
       </c>
       <c r="S5">
-        <v>0.01477835288286197</v>
+        <v>0.01159513023925395</v>
       </c>
       <c r="T5">
-        <v>0.01477835288286198</v>
+        <v>0.01159513023925395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J6">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N6">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O6">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P6">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q6">
-        <v>69.185379358316</v>
+        <v>96.32336844509</v>
       </c>
       <c r="R6">
-        <v>622.668414224844</v>
+        <v>866.91031600581</v>
       </c>
       <c r="S6">
-        <v>0.06128209204957729</v>
+        <v>0.05642137474582631</v>
       </c>
       <c r="T6">
-        <v>0.06128209204957729</v>
+        <v>0.0564213747458263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.440219</v>
       </c>
       <c r="I7">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J7">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>106.269536</v>
       </c>
       <c r="O7">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P7">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q7">
         <v>264.9679623187093</v>
@@ -883,10 +883,10 @@
         <v>2384.711660868384</v>
       </c>
       <c r="S7">
-        <v>0.2346997473686947</v>
+        <v>0.1552048785144405</v>
       </c>
       <c r="T7">
-        <v>0.2346997473686947</v>
+        <v>0.1552048785144405</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.440219</v>
       </c>
       <c r="I8">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J8">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N8">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O8">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P8">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q8">
-        <v>176.303921836349</v>
+        <v>228.2509842680624</v>
       </c>
       <c r="R8">
-        <v>1586.735296527141</v>
+        <v>2054.258858412561</v>
       </c>
       <c r="S8">
-        <v>0.1561641096266961</v>
+        <v>0.1336979232286026</v>
       </c>
       <c r="T8">
-        <v>0.1561641096266961</v>
+        <v>0.1336979232286026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>22.440219</v>
       </c>
       <c r="I9">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J9">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N9">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O9">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P9">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q9">
-        <v>27.704888859298</v>
+        <v>18.20581450199933</v>
       </c>
       <c r="R9">
-        <v>249.343999733682</v>
+        <v>163.852330517994</v>
       </c>
       <c r="S9">
-        <v>0.02454006272778691</v>
+        <v>0.01066404860162118</v>
       </c>
       <c r="T9">
-        <v>0.02454006272778691</v>
+        <v>0.01066404860162118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H10">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I10">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J10">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>9.249292000000001</v>
+        <v>12.87733</v>
       </c>
       <c r="N10">
-        <v>27.747876</v>
+        <v>38.63199</v>
       </c>
       <c r="O10">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="P10">
-        <v>0.1285586120341026</v>
+        <v>0.1584922499374361</v>
       </c>
       <c r="Q10">
-        <v>34.28852517018934</v>
+        <v>69.52344698410333</v>
       </c>
       <c r="R10">
-        <v>308.596726531704</v>
+        <v>625.7110228569301</v>
       </c>
       <c r="S10">
-        <v>0.03037162728907145</v>
+        <v>0.04072333141202179</v>
       </c>
       <c r="T10">
-        <v>0.03037162728907145</v>
+        <v>0.04072333141202179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H11">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I11">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J11">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>106.269536</v>
       </c>
       <c r="O11">
-        <v>0.4923571104926409</v>
+        <v>0.4359831802722915</v>
       </c>
       <c r="P11">
-        <v>0.492357110492641</v>
+        <v>0.4359831802722916</v>
       </c>
       <c r="Q11">
-        <v>131.3190840250382</v>
+        <v>191.2462819575502</v>
       </c>
       <c r="R11">
-        <v>1181.871756225344</v>
+        <v>1721.216537617952</v>
       </c>
       <c r="S11">
-        <v>0.1163180468146304</v>
+        <v>0.1120224335720158</v>
       </c>
       <c r="T11">
-        <v>0.1163180468146304</v>
+        <v>0.1120224335720159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H12">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I12">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J12">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.569813</v>
+        <v>30.51453966666667</v>
       </c>
       <c r="N12">
-        <v>70.709439</v>
+        <v>91.54361900000001</v>
       </c>
       <c r="O12">
-        <v>0.327603717688159</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="P12">
-        <v>0.3276037176881591</v>
+        <v>0.3755683862706898</v>
       </c>
       <c r="Q12">
-        <v>87.37686368936734</v>
+        <v>164.7450194069592</v>
       </c>
       <c r="R12">
-        <v>786.391773204306</v>
+        <v>1482.705174662633</v>
       </c>
       <c r="S12">
-        <v>0.07739549964571459</v>
+        <v>0.09649932957615835</v>
       </c>
       <c r="T12">
-        <v>0.07739549964571461</v>
+        <v>0.09649932957615838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H13">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I13">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J13">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.703826</v>
+        <v>2.433908666666667</v>
       </c>
       <c r="N13">
-        <v>11.111478</v>
+        <v>7.301726</v>
       </c>
       <c r="O13">
-        <v>0.05148055978509729</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="P13">
-        <v>0.0514805597850973</v>
+        <v>0.0299561835195825</v>
       </c>
       <c r="Q13">
-        <v>13.73064349433467</v>
+        <v>13.14043517958689</v>
       </c>
       <c r="R13">
-        <v>123.575791449012</v>
+        <v>118.263916616282</v>
       </c>
       <c r="S13">
-        <v>0.01216214417444841</v>
+        <v>0.007697004678707366</v>
       </c>
       <c r="T13">
-        <v>0.01216214417444842</v>
+        <v>0.007697004678707368</v>
       </c>
     </row>
   </sheetData>
